--- a/ask-read-data/wwwroot/FormatFile/ASUKA_FRAME_ASSY_TEMPLATE_序列表.xlsx
+++ b/ask-read-data/wwwroot/FormatFile/ASUKA_FRAME_ASSY_TEMPLATE_序列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wwwroot\FormatFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019812F3-9CBB-46BB-ABEA-728072ED8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA931A-82AB-49F7-B20B-520355FE46CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6DB32E3F-923A-4588-82AE-36DC8D3A2509}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -180,6 +180,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -187,24 +200,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,24 +235,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{0283D966-3770-425B-98C1-8D861C1AAB2D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,7 +284,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,12 +583,12 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.19921875" style="1"/>
     <col min="4" max="4" width="14.296875" style="1" customWidth="1"/>
@@ -559,330 +597,337 @@
     <col min="8" max="16384" width="8.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="4"/>
+    <row r="1" spans="1:7" ht="40.5" customHeight="1"/>
+    <row r="2" spans="1:7" ht="7.2" customHeight="1"/>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="4"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="4"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="18"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="4"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="4"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="4"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="4"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="4"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="4"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="4"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="18"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="4"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="4"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="4"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="18"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="4"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="4"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="4"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="4"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="4"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A31" s="4"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A32" s="4"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="18"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A34" s="4"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="16"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A35" s="4"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36" s="4"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A37" s="4"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="18"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
     <mergeCell ref="G3:G37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -890,13 +935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686302FA-C0C9-4C0F-B35A-14E0B260BC14}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="52" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.19921875" style="1"/>
     <col min="4" max="4" width="14.296875" style="1" customWidth="1"/>
@@ -905,330 +948,337 @@
     <col min="8" max="16384" width="8.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="1" spans="1:7" ht="40.5" customHeight="1"/>
+    <row r="2" spans="1:7" ht="7.5" customHeight="1"/>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="20"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="19"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="20"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="21"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="21"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="19"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="19"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="21"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:G37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>